--- a/biology/Zoologie/Dinochernes_vanduzeei/Dinochernes_vanduzeei.xlsx
+++ b/biology/Zoologie/Dinochernes_vanduzeei/Dinochernes_vanduzeei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dinochernes vanduzeei est une espèce de pseudoscorpions de la famille des Chernetidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Basse-Californie du Sud au Mexique[1]. Elle se rencontre sur Coronados.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Basse-Californie du Sud au Mexique. Elle se rencontre sur Coronados.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 5 mm[2].
-La femelle décrite par Muchmore en 1975 mesure 4,20 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 5 mm.
+La femelle décrite par Muchmore en 1975 mesure 4,20 mm.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Edward Payson Van Duzee[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Edward Payson Van Duzee.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Chamberlin, 1923 : New and little known pseudoscorpions, principally from the islands and adjacent shores of the Gulf of California. Proceedings of the California Academy of Sciences, sér. 4, vol. 12, no 17, p. 353-387 (texte intégral).</t>
         </is>
